--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112742719.700605</v>
+        <v>45939287.61013824</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9580.181666024737</v>
+        <v>1064728.064337822</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18193.32184204669</v>
+        <v>1977776.418578953</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26806.46201806863</v>
+        <v>2890824.772820085</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35772.71513064177</v>
+        <v>3821271.274940005</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44651.540364427</v>
+        <v>4734319.629181137</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53530.36559821225</v>
+        <v>5647367.983422268</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62409.19083199749</v>
+        <v>6560416.337663396</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71288.01606578272</v>
+        <v>7473464.691904523</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80166.84129956798</v>
+        <v>8386513.046145651</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89045.66653335321</v>
+        <v>9299561.400386779</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97924.49176713845</v>
+        <v>10212609.75462791</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106475.0586710452</v>
+        <v>11108259.96099026</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>115113.0534537399</v>
+        <v>12021308.3152314</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123751.0482364346</v>
+        <v>12934356.66947254</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132389.0430191293</v>
+        <v>13847405.02371367</v>
       </c>
     </row>
   </sheetData>
